--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848925.180488688</v>
+        <v>1953104.81493976</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>341.5482523664531</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>121.1059660434825</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>218.2383461616747</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.55668939686525</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -950,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>266.8321196145423</v>
+        <v>54.06815287720611</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>173.0908189394384</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>63.10700780326998</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>213.6362495304041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>53.70969583585342</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>21.90781088454278</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.0092767027074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>101.1785556175217</v>
       </c>
       <c r="E13" t="n">
-        <v>129.5380597272431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771207</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>212.4076860934765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189057</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>178.2798710842938</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>65.38324202937316</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>28.54004930889326</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,16 +2763,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605717294</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.91529601901533</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.7365230047955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.575894358866</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>71.76895293959859</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>164.1303830823232</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.3923706291104</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>154.4892550148504</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.793820398077</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1637.831303457665</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.565604850915</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>528.4218742137277</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723278</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.393660462199</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2393.393660462199</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>610.6137746750309</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>610.6137746750309</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="V4" t="n">
-        <v>355.929286469144</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218342</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2739.810011970445</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4758,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>456.9449278938906</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X7" t="n">
-        <v>456.9449278938906</v>
+        <v>602.4580652857627</v>
       </c>
       <c r="Y7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.660964416652</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1032.872711818408</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>621.8868070288001</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3271.353603593157</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3065.37585597738</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3065.37585597738</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2734.312968633809</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>234.8584051179042</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>234.8584051179042</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
         <v>212.7293032143256</v>
@@ -4954,16 +4956,16 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5002,10 +5004,10 @@
         <v>631.7841389438285</v>
       </c>
       <c r="X10" t="n">
-        <v>631.7841389438285</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946291</v>
+        <v>403.7945880458111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179038</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179038</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>762.5477693179038</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179038</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5285,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356195</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.342175037157</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1332.925005000197</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.935454102179</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>3229.653730559302</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>3060.717547631396</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2910.60090821906</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2762.687814636667</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2615.797867138756</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2448.601767853636</v>
       </c>
       <c r="H28" t="n">
         <v>2419.773435218391</v>
@@ -6409,25 +6411,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>4440.9326143059</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>4149.50149546805</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>3860.084325431089</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>3632.094774533072</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>3411.302195389542</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630497</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630497</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630497</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630497</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2421.591387345377</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,16 +6727,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6743,7 +6745,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>506.2737913123336</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>4103.30461451513</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630497</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630497</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630497</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630497</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024105</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>4375.357651038691</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7153,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E40" t="n">
-        <v>415.5933575433587</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F40" t="n">
-        <v>415.5933575433587</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>248.3972582582387</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,46 +7417,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2221.945288288107</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2002.343823311048</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.268596655246</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.584108449359</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.166938412398</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143809</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>47.43691740069063</v>
       </c>
       <c r="E13" t="n">
-        <v>16.89590291932606</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303783</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>108.2431272522972</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>111.7546635373306</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.2691783702288</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671011793</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.5257599066253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>15.70159709961413</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>24.6339153725342</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830042</v>
@@ -26326,22 +26328,22 @@
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830044</v>
@@ -26350,10 +26352,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26442,19 +26444,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="O4" t="n">
         <v>14826.69604186742</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14826.69604186739</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14826.69604186741</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395527</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395525</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="E6" t="n">
-        <v>123640.9321098746</v>
+        <v>123640.9321098745</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172302</v>
+        <v>449053.3939172301</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172301</v>
+        <v>449053.3939172298</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.39391723</v>
+        <v>449053.3939172299</v>
       </c>
       <c r="I6" t="n">
         <v>449053.3939172302</v>
       </c>
       <c r="J6" t="n">
-        <v>231522.1915199524</v>
+        <v>231522.1915199523</v>
       </c>
       <c r="K6" t="n">
-        <v>449053.3939172298</v>
+        <v>449053.3939172299</v>
       </c>
       <c r="L6" t="n">
-        <v>449053.3939172302</v>
+        <v>449053.39391723</v>
       </c>
       <c r="M6" t="n">
         <v>363998.3659817181</v>
@@ -26558,10 +26560,10 @@
         <v>449053.3939172301</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.3939172301</v>
+        <v>449053.39391723</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.39391723</v>
+        <v>449053.3939172297</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>40.3821177058087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>289.815759609971</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.310603114494455</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>242.6551488087476</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>60.92013885559265</v>
+        <v>273.6841055929288</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>113.4321793971526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>162.6026475857672</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>197.2854761230493</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>55.47806595232242</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>124.5261517620264</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.57537664938741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30466,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O27" t="n">
-        <v>512.9101366533182</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>401.521336481369</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833015</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>458.677017313216</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34135,13 +34137,13 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34451,10 +34453,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O27" t="n">
-        <v>370.3138922088737</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388571</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>320.835578338857</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,10 +38101,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953104.81493976</v>
+        <v>1949092.204925767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>121.1059660434825</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17.73619264967297</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.55668939686525</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>220.652909601408</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>54.06815287720611</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.0138334144184</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>63.10700780326998</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.70969583585342</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>21.90781088454278</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>101.1785556175217</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229273</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>184.167074742451</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803355</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>27.02919805176199</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="G25" t="n">
-        <v>162.1944220709586</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>28.54004930889326</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2892803597729</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>111.3062202753126</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>100.7362831624776</v>
       </c>
       <c r="U34" t="n">
-        <v>94.91529601901533</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>140.575894358866</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.1303830823232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279971</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>154.4892550148504</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033352</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4077790033352</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>939.4077790033352</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>528.4218742137277</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>902.9716597074041</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>902.9716597074041</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145372</v>
+        <v>902.9716597074041</v>
       </c>
       <c r="U4" t="n">
-        <v>463.4378502581077</v>
+        <v>902.9716597074041</v>
       </c>
       <c r="V4" t="n">
-        <v>463.4378502581077</v>
+        <v>902.9716597074041</v>
       </c>
       <c r="W4" t="n">
-        <v>463.4378502581077</v>
+        <v>613.5544896704434</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>385.564938772426</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>385.564938772426</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>746.4631922178273</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2701.192632958762</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2701.192632958762</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697682</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697682</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>602.4580652857627</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.6654861422326</v>
+        <v>182.6877057396768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3271.353603593157</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3065.37585597738</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.7945880458111</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C10" t="n">
-        <v>234.8584051179042</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D10" t="n">
-        <v>234.8584051179042</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458111</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.7945880458111</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>555.8158034133914</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>555.8158034133914</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133914</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098309983</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>958.2568473871613</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>737.4642682436312</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738537</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>738.560493261518</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791249</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>443.7574521812145</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.175244810116</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>481.447947124485</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F25" t="n">
-        <v>481.447947124485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3229.653730559302</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3060.717547631396</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2910.60090821906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2762.687814636667</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2615.797867138756</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2448.601767853636</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4404.185983673937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4149.50149546805</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.084325431089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.094774533072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3411.302195389542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>696.7084350851671</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>546.5917956728314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>398.6787020904383</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4103.30461451513</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200.825397924057</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.88921499615</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U34" t="n">
-        <v>4375.357651038691</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V34" t="n">
-        <v>4120.673162832804</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W34" t="n">
-        <v>3831.255992795844</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.266441897827</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y34" t="n">
-        <v>3382.473862754297</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,28 +7192,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232836</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>47.43691740069063</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>41.54258064658612</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>40.6433062151481</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.7088805469528</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522972</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G25" t="n">
-        <v>3.329716221310264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.7546635373306</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.131767663158371</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>107.2784330767822</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="U34" t="n">
-        <v>191.2691783702288</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>126.7126101431586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>4.845153664065208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.70159709961413</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>71.22040037418677</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697899</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26429,19 +26429,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186725</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26453,10 +26453,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880397</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
+        <v>373198.5542395529</v>
+      </c>
+      <c r="D6" t="n">
         <v>373198.5542395527</v>
       </c>
-      <c r="D6" t="n">
-        <v>373198.5542395529</v>
-      </c>
       <c r="E6" t="n">
-        <v>123640.9321098745</v>
+        <v>123293.5528555174</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172301</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172298</v>
+        <v>448706.0146628732</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628732</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.3939172302</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="J6" t="n">
-        <v>231522.1915199523</v>
+        <v>231174.8122655958</v>
       </c>
       <c r="K6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628732</v>
       </c>
       <c r="L6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="M6" t="n">
-        <v>363998.3659817181</v>
+        <v>363650.9867273612</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.3939172301</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.0146628732</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.3939172297</v>
+        <v>448706.0146628732</v>
       </c>
     </row>
   </sheetData>
@@ -26795,25 +26795,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>289.815759609971</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>71.19596002037437</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>242.6551488087476</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>186.2231361403034</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>273.6841055929288</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>64.81814676751888</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.6026475857672</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>55.47806595232242</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124.5261517620264</v>
+        <v>14.8817498053001</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>465.217062384076</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>463.4318227833015</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>322.6208179396315</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>320.8355783388571</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949092.204925767</v>
+        <v>1950852.735228553</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>42.24406744395763</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933833</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.73619264967297</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>47.3866485609005</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.8791992932315</v>
       </c>
       <c r="F5" t="n">
-        <v>220.652909601408</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.0138334144184</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>40.12741312164793</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229273</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>184.167074742451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.85274231757869</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6965697803355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444161</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>28.7518808581205</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>188.095826133329</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.3062202753126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>100.7362831624776</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>100.2041656279971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1660.60999832272</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064764</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080143</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>902.9716597074041</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>902.9716597074041</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>902.9716597074041</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>902.9716597074041</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V4" t="n">
-        <v>902.9716597074041</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W4" t="n">
-        <v>613.5544896704434</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X4" t="n">
-        <v>385.564938772426</v>
+        <v>114.3774180088506</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756483</v>
+        <v>1517.887535471217</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.251444816072</v>
+        <v>1517.887535471217</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.251444816072</v>
+        <v>1517.887535471217</v>
       </c>
       <c r="E5" t="n">
-        <v>746.4631922178273</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820605</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832069</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.6877057396768</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>869.0763550278982</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>510.8106564211477</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>125.0224038229035</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>118.0769030737</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569591005</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569591005</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.445961844415</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165081</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041724</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.8158034133914</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133914</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133914</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098309983</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>958.2568473871613</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.4642682436312</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5302,28 +5302,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436271</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,22 +6007,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.7012443408905</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2095.308724111328</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1806.233497455525</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1551.549009249638</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.131839212678</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1034.14228831466</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>813.3497091711303</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7074,22 +7074,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192548</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7788,16 +7788,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>41.54258064658612</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>114.1735436840659</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7088805469528</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>98.08864825591516</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.2784330767822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.24602870709305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
@@ -26322,19 +26322,19 @@
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
@@ -26346,16 +26346,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186725</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880399</v>
+        <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
+        <v>373198.5542395527</v>
+      </c>
+      <c r="D6" t="n">
         <v>373198.5542395529</v>
       </c>
-      <c r="D6" t="n">
-        <v>373198.5542395527</v>
-      </c>
       <c r="E6" t="n">
-        <v>123293.5528555174</v>
+        <v>123606.1941844391</v>
       </c>
       <c r="F6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917947</v>
       </c>
       <c r="G6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="H6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="I6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="J6" t="n">
-        <v>231174.8122655958</v>
+        <v>231487.4535945168</v>
       </c>
       <c r="K6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="L6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="M6" t="n">
-        <v>363650.9867273612</v>
+        <v>363963.6280562825</v>
       </c>
       <c r="N6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="O6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="P6" t="n">
-        <v>448706.0146628732</v>
+        <v>449018.6559917943</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>312.4389741767253</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003795</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>71.19596002037437</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1980047911943</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.05117077903026</v>
       </c>
       <c r="F5" t="n">
-        <v>186.2231361403034</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.81814676751888</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.449516651278017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923771</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8817498053001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.360776804491007e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33195,7 +33195,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36843,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
